--- a/ImportAllLangs/RewiseJazyky.xlsx
+++ b/ImportAllLangs/RewiseJazyky.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11760"/>
   </bookViews>
   <sheets>
-    <sheet name="ToPZCode" sheetId="9" r:id="rId1"/>
+    <sheet name="ToPZCode" sheetId="10" r:id="rId1"/>
     <sheet name="Kombinace" sheetId="7" r:id="rId2"/>
     <sheet name="Jazyky SQL server" sheetId="1" r:id="rId3"/>
     <sheet name="RJ - zdroje" sheetId="3" r:id="rId4"/>
@@ -23,7 +23,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Kombinace!$P$1:$P$412</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ToPZCode!$P$1:$P$83</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ToPZCode!$P$1:$P$86</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8915" uniqueCount="1463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8944" uniqueCount="1464">
   <si>
     <t>Chinese (Macau SAR)</t>
   </si>
@@ -4424,6 +4424,9 @@
   </si>
   <si>
     <t>ANO</t>
+  </si>
+  <si>
+    <t>CheckAlias</t>
   </si>
 </sst>
 </file>
@@ -4946,7 +4949,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P1047927"/>
+  <dimension ref="A1:P1047930"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4999,28 +5002,31 @@
       <c r="J1" s="7" t="s">
         <v>1459</v>
       </c>
+      <c r="K1" s="7" t="s">
+        <v>1463</v>
+      </c>
       <c r="P1" t="s">
         <v>1460</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1059</v>
+        <v>1078</v>
       </c>
       <c r="B2" t="s">
-        <v>226</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
-        <v>403</v>
+        <v>340</v>
       </c>
       <c r="D2" t="s">
-        <v>940</v>
+        <v>72</v>
       </c>
       <c r="E2" t="s">
         <v>1461</v>
       </c>
       <c r="F2" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="G2" t="s">
         <v>1462</v>
@@ -5035,28 +5041,28 @@
         <v>1461</v>
       </c>
       <c r="P2" t="str">
-        <f t="shared" ref="P2:P57" si="0">IF(LEN(E2&amp;F2&amp;G2&amp;H2&amp;I2&amp;J2)&gt;0,"1","0")</f>
+        <f>IF(LEN(E2&amp;F2&amp;G2&amp;H2&amp;I2&amp;J2)&gt;0,"1","0")</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1081</v>
+        <v>1052</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>380</v>
+        <v>347</v>
       </c>
       <c r="D3" t="s">
-        <v>1161</v>
+        <v>74</v>
       </c>
       <c r="E3" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="F3" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="G3" t="s">
         <v>1462</v>
@@ -5065,34 +5071,34 @@
         <v>1461</v>
       </c>
       <c r="I3" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="J3" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="P3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="P3:P48" si="0">IF(LEN(E3&amp;F3&amp;G3&amp;H3&amp;I3&amp;J3)&gt;0,"1","0")</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>1094</v>
+        <v>1025</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="D4" t="s">
-        <v>1262</v>
+        <v>76</v>
       </c>
       <c r="E4" t="s">
         <v>1462</v>
       </c>
       <c r="F4" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="G4" t="s">
         <v>1462</v>
@@ -5101,7 +5107,7 @@
         <v>1461</v>
       </c>
       <c r="I4" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="J4" t="s">
         <v>1462</v>
@@ -5113,22 +5119,22 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>1097</v>
+        <v>1067</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="C5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D5" t="s">
-        <v>1361</v>
+        <v>77</v>
       </c>
       <c r="E5" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="F5" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="G5" t="s">
         <v>1462</v>
@@ -5140,7 +5146,7 @@
         <v>1461</v>
       </c>
       <c r="J5" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="P5" t="str">
         <f t="shared" si="0"/>
@@ -5149,25 +5155,25 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>1098</v>
+        <v>1101</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="C6" t="s">
         <v>380</v>
       </c>
       <c r="D6" t="s">
-        <v>1367</v>
+        <v>79</v>
       </c>
       <c r="E6" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="F6" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="G6" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="H6" t="s">
         <v>1461</v>
@@ -5176,7 +5182,7 @@
         <v>1461</v>
       </c>
       <c r="J6" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="P6" t="str">
         <f t="shared" si="0"/>
@@ -5185,25 +5191,25 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>1102</v>
+        <v>1068</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>389</v>
       </c>
       <c r="C7" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="D7" t="s">
-        <v>1215</v>
+        <v>81</v>
       </c>
       <c r="E7" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="F7" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="G7" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="H7" t="s">
         <v>1461</v>
@@ -5212,7 +5218,7 @@
         <v>1461</v>
       </c>
       <c r="J7" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="P7" t="str">
         <f t="shared" si="0"/>
@@ -5221,22 +5227,22 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>5146</v>
+        <v>1093</v>
       </c>
       <c r="B8" t="s">
-        <v>415</v>
+        <v>396</v>
       </c>
       <c r="C8" t="s">
-        <v>414</v>
+        <v>380</v>
       </c>
       <c r="D8" t="s">
-        <v>948</v>
+        <v>85</v>
       </c>
       <c r="E8" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="F8" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="G8" t="s">
         <v>1462</v>
@@ -5249,6 +5255,9 @@
       </c>
       <c r="J8" t="s">
         <v>1461</v>
+      </c>
+      <c r="K8" t="s">
+        <v>937</v>
       </c>
       <c r="P8" t="str">
         <f t="shared" si="0"/>
@@ -5257,19 +5266,19 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>1039</v>
+        <v>1069</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="C9" t="s">
-        <v>611</v>
+        <v>383</v>
       </c>
       <c r="D9" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="E9" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="F9" t="s">
         <v>1462</v>
@@ -5293,25 +5302,25 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>1065</v>
+        <v>1059</v>
       </c>
       <c r="B10" t="s">
-        <v>146</v>
+        <v>226</v>
       </c>
       <c r="C10" t="s">
-        <v>704</v>
+        <v>403</v>
       </c>
       <c r="D10" t="s">
-        <v>145</v>
+        <v>940</v>
       </c>
       <c r="E10" t="s">
         <v>1461</v>
       </c>
       <c r="F10" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="G10" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="H10" t="s">
         <v>1461</v>
@@ -5329,25 +5338,25 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>1068</v>
+        <v>5146</v>
       </c>
       <c r="B11" t="s">
-        <v>389</v>
+        <v>415</v>
       </c>
       <c r="C11" t="s">
-        <v>388</v>
+        <v>414</v>
       </c>
       <c r="D11" t="s">
-        <v>81</v>
+        <v>948</v>
       </c>
       <c r="E11" t="s">
         <v>1461</v>
       </c>
       <c r="F11" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="G11" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="H11" t="s">
         <v>1461</v>
@@ -5365,16 +5374,16 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>1069</v>
+        <v>1150</v>
       </c>
       <c r="B12" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C12" t="s">
-        <v>383</v>
+        <v>351</v>
       </c>
       <c r="D12" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E12" t="s">
         <v>1461</v>
@@ -5401,34 +5410,34 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>1074</v>
+        <v>1026</v>
       </c>
       <c r="B13" t="s">
-        <v>805</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>340</v>
+        <v>417</v>
       </c>
       <c r="D13" t="s">
-        <v>165</v>
+        <v>89</v>
       </c>
       <c r="E13" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="F13" t="s">
         <v>1462</v>
       </c>
       <c r="G13" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="H13" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="I13" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="J13" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="P13" t="str">
         <f t="shared" si="0"/>
@@ -5437,34 +5446,34 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>1076</v>
+        <v>1027</v>
       </c>
       <c r="B14" t="s">
-        <v>174</v>
+        <v>49</v>
       </c>
       <c r="C14" t="s">
-        <v>340</v>
+        <v>383</v>
       </c>
       <c r="D14" t="s">
-        <v>173</v>
+        <v>92</v>
       </c>
       <c r="E14" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="F14" t="s">
         <v>1462</v>
       </c>
       <c r="G14" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="H14" t="s">
         <v>1461</v>
       </c>
       <c r="I14" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="J14" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="P14" t="str">
         <f t="shared" si="0"/>
@@ -5473,16 +5482,16 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>1077</v>
+        <v>1155</v>
       </c>
       <c r="B15" t="s">
-        <v>178</v>
+        <v>94</v>
       </c>
       <c r="C15" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="D15" t="s">
-        <v>177</v>
+        <v>93</v>
       </c>
       <c r="E15" t="s">
         <v>1461</v>
@@ -5509,34 +5518,34 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>1082</v>
+        <v>1050</v>
       </c>
       <c r="B16" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>517</v>
+        <v>449</v>
       </c>
       <c r="D16" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="E16" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="F16" t="s">
         <v>1462</v>
       </c>
       <c r="G16" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="H16" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="I16" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="J16" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="P16" t="str">
         <f t="shared" si="0"/>
@@ -5545,16 +5554,16 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>1086</v>
+        <v>1029</v>
       </c>
       <c r="B17" t="s">
-        <v>131</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s">
-        <v>516</v>
+        <v>451</v>
       </c>
       <c r="D17" t="s">
-        <v>130</v>
+        <v>63</v>
       </c>
       <c r="E17" t="s">
         <v>1462</v>
@@ -5563,13 +5572,13 @@
         <v>1462</v>
       </c>
       <c r="G17" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="H17" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="I17" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="J17" t="s">
         <v>1462</v>
@@ -5581,34 +5590,34 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>1088</v>
+        <v>1030</v>
       </c>
       <c r="B18" t="s">
-        <v>658</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>660</v>
+        <v>452</v>
       </c>
       <c r="D18" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="E18" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="F18" t="s">
         <v>1462</v>
       </c>
       <c r="G18" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="H18" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="I18" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="J18" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="P18" t="str">
         <f t="shared" si="0"/>
@@ -5617,34 +5626,34 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>1089</v>
+        <v>1043</v>
       </c>
       <c r="B19" t="s">
-        <v>648</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="D19" t="s">
-        <v>159</v>
+        <v>97</v>
       </c>
       <c r="E19" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="F19" t="s">
         <v>1462</v>
       </c>
       <c r="G19" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="H19" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="I19" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="J19" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="P19" t="str">
         <f t="shared" si="0"/>
@@ -5653,34 +5662,34 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>1091</v>
+        <v>1033</v>
       </c>
       <c r="B20" t="s">
-        <v>869</v>
+        <v>43</v>
       </c>
       <c r="C20" t="s">
-        <v>868</v>
+        <v>429</v>
       </c>
       <c r="D20" t="s">
-        <v>170</v>
+        <v>64</v>
       </c>
       <c r="E20" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="F20" t="s">
         <v>1462</v>
       </c>
       <c r="G20" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="H20" t="s">
         <v>1461</v>
       </c>
       <c r="I20" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="J20" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="P20" t="str">
         <f t="shared" si="0"/>
@@ -5689,16 +5698,16 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>1100</v>
+        <v>2057</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C21" t="s">
-        <v>380</v>
+        <v>446</v>
       </c>
       <c r="D21" t="s">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="E21" t="s">
         <v>1462</v>
@@ -5707,10 +5716,10 @@
         <v>1462</v>
       </c>
       <c r="G21" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="H21" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="I21" t="s">
         <v>1461</v>
@@ -5725,16 +5734,16 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>1101</v>
+        <v>1061</v>
       </c>
       <c r="B22" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="C22" t="s">
-        <v>380</v>
+        <v>556</v>
       </c>
       <c r="D22" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="E22" t="s">
         <v>1461</v>
@@ -5743,10 +5752,10 @@
         <v>1462</v>
       </c>
       <c r="G22" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="H22" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="I22" t="s">
         <v>1461</v>
@@ -5761,16 +5770,16 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>1104</v>
+        <v>1035</v>
       </c>
       <c r="B23" t="s">
-        <v>711</v>
+        <v>101</v>
       </c>
       <c r="C23" t="s">
-        <v>712</v>
+        <v>496</v>
       </c>
       <c r="D23" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="E23" t="s">
         <v>1461</v>
@@ -5779,16 +5788,16 @@
         <v>1462</v>
       </c>
       <c r="G23" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="H23" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="I23" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="J23" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="P23" t="str">
         <f t="shared" si="0"/>
@@ -5797,34 +5806,34 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>1105</v>
+        <v>1036</v>
       </c>
       <c r="B24" t="s">
-        <v>164</v>
+        <v>42</v>
       </c>
       <c r="C24" t="s">
-        <v>434</v>
+        <v>351</v>
       </c>
       <c r="D24" t="s">
-        <v>163</v>
+        <v>1106</v>
       </c>
       <c r="E24" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="F24" t="s">
         <v>1462</v>
       </c>
       <c r="G24" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="H24" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="I24" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="J24" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="P24" t="str">
         <f t="shared" si="0"/>
@@ -5833,16 +5842,16 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>1107</v>
+        <v>1110</v>
       </c>
       <c r="B25" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="C25" t="s">
-        <v>640</v>
+        <v>383</v>
       </c>
       <c r="D25" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="E25" t="s">
         <v>1461</v>
@@ -5869,16 +5878,16 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>1110</v>
+        <v>1079</v>
       </c>
       <c r="B26" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C26" t="s">
-        <v>383</v>
+        <v>598</v>
       </c>
       <c r="D26" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E26" t="s">
         <v>1461</v>
@@ -5887,7 +5896,7 @@
         <v>1462</v>
       </c>
       <c r="G26" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="H26" t="s">
         <v>1461</v>
@@ -5905,34 +5914,34 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>1123</v>
+        <v>1031</v>
       </c>
       <c r="B27" t="s">
-        <v>144</v>
+        <v>45</v>
       </c>
       <c r="C27" t="s">
-        <v>456</v>
+        <v>499</v>
       </c>
       <c r="D27" t="s">
-        <v>143</v>
+        <v>1147</v>
       </c>
       <c r="E27" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="F27" t="s">
         <v>1462</v>
       </c>
       <c r="G27" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="H27" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="I27" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="J27" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="P27" t="str">
         <f t="shared" si="0"/>
@@ -5941,34 +5950,34 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>1128</v>
+        <v>1032</v>
       </c>
       <c r="B28" t="s">
-        <v>606</v>
+        <v>44</v>
       </c>
       <c r="C28" t="s">
-        <v>524</v>
+        <v>599</v>
       </c>
       <c r="D28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E28" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="F28" t="s">
         <v>1462</v>
       </c>
       <c r="G28" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="H28" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="I28" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="J28" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="P28" t="str">
         <f t="shared" si="0"/>
@@ -5977,22 +5986,22 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>1130</v>
+        <v>1095</v>
       </c>
       <c r="B29" t="s">
-        <v>176</v>
+        <v>14</v>
       </c>
       <c r="C29" t="s">
-        <v>524</v>
+        <v>380</v>
       </c>
       <c r="D29" t="s">
-        <v>175</v>
+        <v>1155</v>
       </c>
       <c r="E29" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="F29" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="G29" t="s">
         <v>1461</v>
@@ -6004,7 +6013,7 @@
         <v>1461</v>
       </c>
       <c r="J29" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="P29" t="str">
         <f t="shared" si="0"/>
@@ -6013,16 +6022,16 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="B30" t="s">
-        <v>803</v>
+        <v>606</v>
       </c>
       <c r="C30" t="s">
-        <v>340</v>
+        <v>524</v>
       </c>
       <c r="D30" t="s">
-        <v>155</v>
+        <v>107</v>
       </c>
       <c r="E30" t="s">
         <v>1461</v>
@@ -6049,34 +6058,34 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>1136</v>
+        <v>1037</v>
       </c>
       <c r="B31" t="s">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="C31" t="s">
-        <v>524</v>
+        <v>360</v>
       </c>
       <c r="D31" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E31" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="F31" t="s">
         <v>1462</v>
       </c>
       <c r="G31" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="H31" t="s">
         <v>1461</v>
       </c>
       <c r="I31" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="J31" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="P31" t="str">
         <f t="shared" si="0"/>
@@ -6085,34 +6094,34 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>1150</v>
+        <v>1081</v>
       </c>
       <c r="B32" t="s">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="C32" t="s">
-        <v>351</v>
+        <v>380</v>
       </c>
       <c r="D32" t="s">
-        <v>87</v>
+        <v>1161</v>
       </c>
       <c r="E32" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="F32" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="G32" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="H32" t="s">
         <v>1461</v>
       </c>
       <c r="I32" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="J32" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="P32" t="str">
         <f t="shared" si="0"/>
@@ -6121,16 +6130,16 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>1153</v>
+        <v>1038</v>
       </c>
       <c r="B33" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="C33" t="s">
-        <v>523</v>
+        <v>610</v>
       </c>
       <c r="D33" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="E33" t="s">
         <v>1461</v>
@@ -6139,16 +6148,16 @@
         <v>1462</v>
       </c>
       <c r="G33" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="H33" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="I33" t="s">
         <v>1461</v>
       </c>
       <c r="J33" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="P33" t="str">
         <f t="shared" si="0"/>
@@ -6157,28 +6166,28 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>1154</v>
+        <v>2052</v>
       </c>
       <c r="B34" t="s">
-        <v>142</v>
+        <v>433</v>
       </c>
       <c r="C34" t="s">
-        <v>351</v>
+        <v>434</v>
       </c>
       <c r="D34" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="E34" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="F34" t="s">
         <v>1462</v>
       </c>
       <c r="G34" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="H34" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="I34" t="s">
         <v>1461</v>
@@ -6193,19 +6202,19 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>1155</v>
+        <v>3076</v>
       </c>
       <c r="B35" t="s">
-        <v>94</v>
+        <v>436</v>
       </c>
       <c r="C35" t="s">
-        <v>351</v>
+        <v>437</v>
       </c>
       <c r="D35" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E35" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="F35" t="s">
         <v>1462</v>
@@ -6229,19 +6238,19 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>2108</v>
+        <v>1039</v>
       </c>
       <c r="B36" t="s">
-        <v>119</v>
+        <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>506</v>
+        <v>611</v>
       </c>
       <c r="D36" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E36" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="F36" t="s">
         <v>1462</v>
@@ -6265,19 +6274,19 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>3076</v>
+        <v>1136</v>
       </c>
       <c r="B37" t="s">
-        <v>436</v>
+        <v>116</v>
       </c>
       <c r="C37" t="s">
-        <v>437</v>
+        <v>524</v>
       </c>
       <c r="D37" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="E37" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="F37" t="s">
         <v>1462</v>
@@ -6301,34 +6310,34 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>3179</v>
+        <v>1057</v>
       </c>
       <c r="B38" t="s">
-        <v>151</v>
+        <v>24</v>
       </c>
       <c r="C38" t="s">
-        <v>764</v>
+        <v>613</v>
       </c>
       <c r="D38" t="s">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="E38" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="F38" t="s">
         <v>1462</v>
       </c>
       <c r="G38" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="H38" t="s">
         <v>1461</v>
       </c>
       <c r="I38" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="J38" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="P38" t="str">
         <f t="shared" si="0"/>
@@ -6337,34 +6346,34 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>1025</v>
+        <v>2108</v>
       </c>
       <c r="B39" t="s">
-        <v>51</v>
+        <v>119</v>
       </c>
       <c r="C39" t="s">
-        <v>370</v>
+        <v>506</v>
       </c>
       <c r="D39" t="s">
-        <v>76</v>
+        <v>118</v>
       </c>
       <c r="E39" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="F39" t="s">
         <v>1462</v>
       </c>
       <c r="G39" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="H39" t="s">
         <v>1461</v>
       </c>
       <c r="I39" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="J39" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="P39" t="str">
         <f t="shared" si="0"/>
@@ -6373,16 +6382,16 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>1027</v>
+        <v>1040</v>
       </c>
       <c r="B40" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>383</v>
+        <v>422</v>
       </c>
       <c r="D40" t="s">
-        <v>92</v>
+        <v>1168</v>
       </c>
       <c r="E40" t="s">
         <v>1462</v>
@@ -6394,7 +6403,7 @@
         <v>1462</v>
       </c>
       <c r="H40" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="I40" t="s">
         <v>1462</v>
@@ -6409,16 +6418,16 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>1033</v>
+        <v>1041</v>
       </c>
       <c r="B41" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C41" t="s">
-        <v>429</v>
+        <v>621</v>
       </c>
       <c r="D41" t="s">
-        <v>64</v>
+        <v>120</v>
       </c>
       <c r="E41" t="s">
         <v>1462</v>
@@ -6430,13 +6439,13 @@
         <v>1462</v>
       </c>
       <c r="H41" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="I41" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="J41" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="P41" t="str">
         <f t="shared" si="0"/>
@@ -6445,31 +6454,31 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>1037</v>
+        <v>1099</v>
       </c>
       <c r="B42" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>360</v>
+        <v>380</v>
       </c>
       <c r="D42" t="s">
-        <v>109</v>
+        <v>1179</v>
       </c>
       <c r="E42" t="s">
         <v>1462</v>
       </c>
       <c r="F42" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="G42" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="H42" t="s">
         <v>1461</v>
       </c>
       <c r="I42" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="J42" t="s">
         <v>1462</v>
@@ -6481,34 +6490,34 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>1046</v>
+        <v>1107</v>
       </c>
       <c r="B43" t="s">
-        <v>6</v>
+        <v>122</v>
       </c>
       <c r="C43" t="s">
-        <v>750</v>
+        <v>640</v>
       </c>
       <c r="D43" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="E43" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="F43" t="s">
         <v>1462</v>
       </c>
       <c r="G43" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="H43" t="s">
         <v>1461</v>
       </c>
       <c r="I43" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="J43" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="P43" t="str">
         <f t="shared" si="0"/>
@@ -6517,16 +6526,16 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>1052</v>
+        <v>1089</v>
       </c>
       <c r="B44" t="s">
-        <v>75</v>
+        <v>648</v>
       </c>
       <c r="C44" t="s">
-        <v>347</v>
+        <v>472</v>
       </c>
       <c r="D44" t="s">
-        <v>74</v>
+        <v>159</v>
       </c>
       <c r="E44" t="s">
         <v>1461</v>
@@ -6535,7 +6544,7 @@
         <v>1462</v>
       </c>
       <c r="G44" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="H44" t="s">
         <v>1461</v>
@@ -6553,16 +6562,16 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>1054</v>
+        <v>1042</v>
       </c>
       <c r="B45" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C45" t="s">
-        <v>853</v>
+        <v>650</v>
       </c>
       <c r="D45" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="E45" t="s">
         <v>1462</v>
@@ -6574,7 +6583,7 @@
         <v>1462</v>
       </c>
       <c r="H45" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="I45" t="s">
         <v>1461</v>
@@ -6589,25 +6598,25 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>1056</v>
+        <v>1088</v>
       </c>
       <c r="B46" t="s">
-        <v>25</v>
+        <v>658</v>
       </c>
       <c r="C46" t="s">
-        <v>760</v>
+        <v>660</v>
       </c>
       <c r="D46" t="s">
-        <v>169</v>
+        <v>123</v>
       </c>
       <c r="E46" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="F46" t="s">
         <v>1462</v>
       </c>
       <c r="G46" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="H46" t="s">
         <v>1461</v>
@@ -6616,7 +6625,7 @@
         <v>1461</v>
       </c>
       <c r="J46" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="P46" t="str">
         <f t="shared" si="0"/>
@@ -6625,16 +6634,16 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>1057</v>
+        <v>1062</v>
       </c>
       <c r="B47" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C47" t="s">
-        <v>613</v>
+        <v>668</v>
       </c>
       <c r="D47" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="E47" t="s">
         <v>1462</v>
@@ -6646,7 +6655,7 @@
         <v>1462</v>
       </c>
       <c r="H47" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="I47" t="s">
         <v>1462</v>
@@ -6661,19 +6670,19 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="B48" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="C48" t="s">
-        <v>379</v>
+        <v>672</v>
       </c>
       <c r="D48" t="s">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c r="E48" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="F48" t="s">
         <v>1462</v>
@@ -6682,13 +6691,13 @@
         <v>1462</v>
       </c>
       <c r="H48" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="I48" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="J48" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="P48" t="str">
         <f t="shared" si="0"/>
@@ -6727,31 +6736,31 @@
         <v>1461</v>
       </c>
       <c r="P49" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="P49:P60" si="1">IF(LEN(E49&amp;F49&amp;G49&amp;H49&amp;I49&amp;J49)&gt;0,"1","0")</f>
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>1078</v>
+        <v>1086</v>
       </c>
       <c r="B50" t="s">
-        <v>73</v>
+        <v>131</v>
       </c>
       <c r="C50" t="s">
-        <v>340</v>
+        <v>516</v>
       </c>
       <c r="D50" t="s">
-        <v>72</v>
+        <v>130</v>
       </c>
       <c r="E50" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="F50" t="s">
         <v>1462</v>
       </c>
       <c r="G50" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="H50" t="s">
         <v>1461</v>
@@ -6760,34 +6769,34 @@
         <v>1461</v>
       </c>
       <c r="J50" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="P50" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>1079</v>
+        <v>1100</v>
       </c>
       <c r="B51" t="s">
-        <v>105</v>
+        <v>10</v>
       </c>
       <c r="C51" t="s">
-        <v>598</v>
+        <v>380</v>
       </c>
       <c r="D51" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="E51" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="F51" t="s">
         <v>1462</v>
       </c>
       <c r="G51" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="H51" t="s">
         <v>1461</v>
@@ -6796,34 +6805,34 @@
         <v>1461</v>
       </c>
       <c r="J51" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="P51" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>1093</v>
+        <v>1082</v>
       </c>
       <c r="B52" t="s">
-        <v>396</v>
+        <v>134</v>
       </c>
       <c r="C52" t="s">
-        <v>380</v>
+        <v>517</v>
       </c>
       <c r="D52" t="s">
-        <v>85</v>
+        <v>133</v>
       </c>
       <c r="E52" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="F52" t="s">
         <v>1462</v>
       </c>
       <c r="G52" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="H52" t="s">
         <v>1461</v>
@@ -6835,130 +6844,130 @@
         <v>1461</v>
       </c>
       <c r="P52" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>1026</v>
+        <v>1153</v>
       </c>
       <c r="B53" t="s">
-        <v>50</v>
+        <v>136</v>
       </c>
       <c r="C53" t="s">
-        <v>417</v>
+        <v>523</v>
       </c>
       <c r="D53" t="s">
-        <v>89</v>
+        <v>135</v>
       </c>
       <c r="E53" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="F53" t="s">
         <v>1462</v>
       </c>
       <c r="G53" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="H53" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="I53" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="J53" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="P53" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>1029</v>
+        <v>1102</v>
       </c>
       <c r="B54" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>451</v>
+        <v>380</v>
       </c>
       <c r="D54" t="s">
-        <v>63</v>
+        <v>1215</v>
       </c>
       <c r="E54" t="s">
         <v>1462</v>
       </c>
       <c r="F54" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="G54" t="s">
         <v>1462</v>
       </c>
       <c r="H54" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="I54" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="J54" t="s">
         <v>1462</v>
       </c>
       <c r="P54" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>1030</v>
+        <v>1104</v>
       </c>
       <c r="B55" t="s">
-        <v>46</v>
+        <v>711</v>
       </c>
       <c r="C55" t="s">
-        <v>452</v>
+        <v>712</v>
       </c>
       <c r="D55" t="s">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="E55" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="F55" t="s">
         <v>1462</v>
       </c>
       <c r="G55" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="H55" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="I55" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="J55" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="P55" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>1031</v>
+        <v>1044</v>
       </c>
       <c r="B56" t="s">
-        <v>45</v>
+        <v>730</v>
       </c>
       <c r="C56" t="s">
-        <v>499</v>
+        <v>732</v>
       </c>
       <c r="D56" t="s">
-        <v>1147</v>
+        <v>139</v>
       </c>
       <c r="E56" t="s">
         <v>1462</v>
@@ -6979,58 +6988,58 @@
         <v>1462</v>
       </c>
       <c r="P56" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>1032</v>
+        <v>1154</v>
       </c>
       <c r="B57" t="s">
-        <v>44</v>
+        <v>142</v>
       </c>
       <c r="C57" t="s">
-        <v>599</v>
+        <v>351</v>
       </c>
       <c r="D57" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="E57" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="F57" t="s">
         <v>1462</v>
       </c>
       <c r="G57" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="H57" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="I57" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="J57" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="P57" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>1035</v>
+        <v>1123</v>
       </c>
       <c r="B58" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="C58" t="s">
-        <v>496</v>
+        <v>456</v>
       </c>
       <c r="D58" t="s">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="E58" t="s">
         <v>1461</v>
@@ -7039,52 +7048,52 @@
         <v>1462</v>
       </c>
       <c r="G58" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="H58" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="I58" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="J58" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="P58" t="str">
-        <f t="shared" ref="P58:P83" si="1">IF(LEN(E58&amp;F58&amp;G58&amp;H58&amp;I58&amp;J58)&gt;0,"1","0")</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>1036</v>
+        <v>1065</v>
       </c>
       <c r="B59" t="s">
-        <v>42</v>
+        <v>146</v>
       </c>
       <c r="C59" t="s">
-        <v>351</v>
+        <v>704</v>
       </c>
       <c r="D59" t="s">
-        <v>1106</v>
+        <v>145</v>
       </c>
       <c r="E59" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="F59" t="s">
         <v>1462</v>
       </c>
       <c r="G59" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="H59" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="I59" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="J59" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="P59" t="str">
         <f t="shared" si="1"/>
@@ -7093,19 +7102,19 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>1038</v>
+        <v>1045</v>
       </c>
       <c r="B60" t="s">
-        <v>111</v>
+        <v>34</v>
       </c>
       <c r="C60" t="s">
-        <v>610</v>
+        <v>749</v>
       </c>
       <c r="D60" t="s">
-        <v>110</v>
+        <v>71</v>
       </c>
       <c r="E60" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="F60" t="s">
         <v>1462</v>
@@ -7117,7 +7126,7 @@
         <v>1462</v>
       </c>
       <c r="I60" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="J60" t="s">
         <v>1462</v>
@@ -7129,16 +7138,16 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>1040</v>
+        <v>1046</v>
       </c>
       <c r="B61" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="C61" t="s">
-        <v>422</v>
+        <v>750</v>
       </c>
       <c r="D61" t="s">
-        <v>1168</v>
+        <v>148</v>
       </c>
       <c r="E61" t="s">
         <v>1462</v>
@@ -7150,7 +7159,7 @@
         <v>1462</v>
       </c>
       <c r="H61" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="I61" t="s">
         <v>1462</v>
@@ -7159,22 +7168,22 @@
         <v>1462</v>
       </c>
       <c r="P61" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="P61:P86" si="2">IF(LEN(E61&amp;F61&amp;G61&amp;H61&amp;I61&amp;J61)&gt;0,"1","0")</f>
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>1041</v>
+        <v>2070</v>
       </c>
       <c r="B62" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="C62" t="s">
-        <v>621</v>
+        <v>752</v>
       </c>
       <c r="D62" t="s">
-        <v>120</v>
+        <v>147</v>
       </c>
       <c r="E62" t="s">
         <v>1462</v>
@@ -7189,100 +7198,100 @@
         <v>1462</v>
       </c>
       <c r="I62" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="J62" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="P62" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>1042</v>
+        <v>1094</v>
       </c>
       <c r="B63" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="C63" t="s">
-        <v>650</v>
+        <v>380</v>
       </c>
       <c r="D63" t="s">
-        <v>125</v>
+        <v>1262</v>
       </c>
       <c r="E63" t="s">
         <v>1462</v>
       </c>
       <c r="F63" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="G63" t="s">
         <v>1462</v>
       </c>
       <c r="H63" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="I63" t="s">
         <v>1461</v>
       </c>
       <c r="J63" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="P63" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>1043</v>
+        <v>3179</v>
       </c>
       <c r="B64" t="s">
-        <v>36</v>
+        <v>151</v>
       </c>
       <c r="C64" t="s">
-        <v>464</v>
+        <v>764</v>
       </c>
       <c r="D64" t="s">
-        <v>97</v>
+        <v>150</v>
       </c>
       <c r="E64" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="F64" t="s">
         <v>1462</v>
       </c>
       <c r="G64" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="H64" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="I64" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="J64" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="P64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>1044</v>
+        <v>1048</v>
       </c>
       <c r="B65" t="s">
-        <v>730</v>
+        <v>32</v>
       </c>
       <c r="C65" t="s">
-        <v>732</v>
+        <v>768</v>
       </c>
       <c r="D65" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="E65" t="s">
         <v>1462</v>
@@ -7303,22 +7312,22 @@
         <v>1462</v>
       </c>
       <c r="P65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>1045</v>
+        <v>1049</v>
       </c>
       <c r="B66" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C66" t="s">
-        <v>749</v>
+        <v>402</v>
       </c>
       <c r="D66" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E66" t="s">
         <v>1462</v>
@@ -7339,58 +7348,58 @@
         <v>1462</v>
       </c>
       <c r="P66" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>1048</v>
+        <v>3098</v>
       </c>
       <c r="B67" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="C67" t="s">
-        <v>768</v>
+        <v>802</v>
       </c>
       <c r="D67" t="s">
-        <v>152</v>
+        <v>1298</v>
       </c>
       <c r="E67" t="s">
         <v>1462</v>
       </c>
       <c r="F67" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="G67" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="H67" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="I67" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="J67" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>1049</v>
+        <v>2074</v>
       </c>
       <c r="B68" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="C68" t="s">
-        <v>402</v>
+        <v>802</v>
       </c>
       <c r="D68" t="s">
-        <v>70</v>
+        <v>153</v>
       </c>
       <c r="E68" t="s">
         <v>1462</v>
@@ -7405,100 +7414,100 @@
         <v>1462</v>
       </c>
       <c r="I68" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="J68" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="P68" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>1050</v>
+        <v>1132</v>
       </c>
       <c r="B69" t="s">
-        <v>30</v>
+        <v>803</v>
       </c>
       <c r="C69" t="s">
-        <v>449</v>
+        <v>340</v>
       </c>
       <c r="D69" t="s">
-        <v>95</v>
+        <v>155</v>
       </c>
       <c r="E69" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="F69" t="s">
         <v>1462</v>
       </c>
       <c r="G69" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="H69" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="I69" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="J69" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="P69" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>1051</v>
+        <v>1074</v>
       </c>
       <c r="B70" t="s">
-        <v>29</v>
+        <v>805</v>
       </c>
       <c r="C70" t="s">
-        <v>811</v>
+        <v>340</v>
       </c>
       <c r="D70" t="s">
-        <v>1310</v>
+        <v>165</v>
       </c>
       <c r="E70" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="F70" t="s">
         <v>1462</v>
       </c>
       <c r="G70" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="H70" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="I70" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="J70" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="P70" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="B71" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C71" t="s">
-        <v>545</v>
+        <v>811</v>
       </c>
       <c r="D71" t="s">
-        <v>161</v>
+        <v>1310</v>
       </c>
       <c r="E71" t="s">
         <v>1462</v>
@@ -7519,22 +7528,22 @@
         <v>1462</v>
       </c>
       <c r="P71" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>1055</v>
+        <v>1060</v>
       </c>
       <c r="B72" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C72" t="s">
-        <v>860</v>
+        <v>541</v>
       </c>
       <c r="D72" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="E72" t="s">
         <v>1462</v>
@@ -7555,22 +7564,22 @@
         <v>1462</v>
       </c>
       <c r="P72" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>1058</v>
+        <v>3082</v>
       </c>
       <c r="B73" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C73" t="s">
-        <v>774</v>
+        <v>383</v>
       </c>
       <c r="D73" t="s">
-        <v>168</v>
+        <v>1342</v>
       </c>
       <c r="E73" t="s">
         <v>1462</v>
@@ -7591,22 +7600,22 @@
         <v>1462</v>
       </c>
       <c r="P73" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>1060</v>
+        <v>1053</v>
       </c>
       <c r="B74" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C74" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="D74" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E74" t="s">
         <v>1462</v>
@@ -7627,94 +7636,94 @@
         <v>1462</v>
       </c>
       <c r="P74" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>1061</v>
+        <v>1097</v>
       </c>
       <c r="B75" t="s">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="C75" t="s">
-        <v>556</v>
+        <v>380</v>
       </c>
       <c r="D75" t="s">
-        <v>98</v>
+        <v>1361</v>
       </c>
       <c r="E75" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="F75" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="G75" t="s">
         <v>1462</v>
       </c>
       <c r="H75" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="I75" t="s">
         <v>1461</v>
       </c>
       <c r="J75" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="P75" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>1062</v>
+        <v>1098</v>
       </c>
       <c r="B76" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C76" t="s">
-        <v>668</v>
+        <v>380</v>
       </c>
       <c r="D76" t="s">
-        <v>126</v>
+        <v>1367</v>
       </c>
       <c r="E76" t="s">
         <v>1462</v>
       </c>
       <c r="F76" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="G76" t="s">
         <v>1462</v>
       </c>
       <c r="H76" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="I76" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="J76" t="s">
         <v>1462</v>
       </c>
       <c r="P76" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>1063</v>
+        <v>1054</v>
       </c>
       <c r="B77" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C77" t="s">
-        <v>672</v>
+        <v>853</v>
       </c>
       <c r="D77" t="s">
-        <v>127</v>
+        <v>162</v>
       </c>
       <c r="E77" t="s">
         <v>1462</v>
@@ -7726,67 +7735,67 @@
         <v>1462</v>
       </c>
       <c r="H77" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="I77" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="J77" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="P77" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>1066</v>
+        <v>1105</v>
       </c>
       <c r="B78" t="s">
-        <v>19</v>
+        <v>164</v>
       </c>
       <c r="C78" t="s">
-        <v>875</v>
+        <v>434</v>
       </c>
       <c r="D78" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="E78" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="F78" t="s">
         <v>1462</v>
       </c>
       <c r="G78" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="H78" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="I78" t="s">
         <v>1461</v>
       </c>
       <c r="J78" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="P78" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>2052</v>
+        <v>1055</v>
       </c>
       <c r="B79" t="s">
-        <v>433</v>
+        <v>26</v>
       </c>
       <c r="C79" t="s">
-        <v>434</v>
+        <v>860</v>
       </c>
       <c r="D79" t="s">
-        <v>112</v>
+        <v>167</v>
       </c>
       <c r="E79" t="s">
         <v>1462</v>
@@ -7801,28 +7810,28 @@
         <v>1462</v>
       </c>
       <c r="I79" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="J79" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="P79" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>2057</v>
+        <v>1058</v>
       </c>
       <c r="B80" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="C80" t="s">
-        <v>446</v>
+        <v>774</v>
       </c>
       <c r="D80" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="E80" t="s">
         <v>1462</v>
@@ -7837,28 +7846,28 @@
         <v>1462</v>
       </c>
       <c r="I80" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="J80" t="s">
         <v>1462</v>
       </c>
       <c r="P80" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>2070</v>
+        <v>1056</v>
       </c>
       <c r="B81" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C81" t="s">
-        <v>752</v>
+        <v>760</v>
       </c>
       <c r="D81" t="s">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="E81" t="s">
         <v>1462</v>
@@ -7870,43 +7879,43 @@
         <v>1462</v>
       </c>
       <c r="H81" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="I81" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="J81" t="s">
         <v>1462</v>
       </c>
       <c r="P81" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>2074</v>
+        <v>1091</v>
       </c>
       <c r="B82" t="s">
-        <v>5</v>
+        <v>869</v>
       </c>
       <c r="C82" t="s">
-        <v>802</v>
+        <v>868</v>
       </c>
       <c r="D82" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="E82" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="F82" t="s">
         <v>1462</v>
       </c>
       <c r="G82" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="H82" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="I82" t="s">
         <v>1461</v>
@@ -7915,22 +7924,22 @@
         <v>1461</v>
       </c>
       <c r="P82" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>3082</v>
+        <v>1066</v>
       </c>
       <c r="B83" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C83" t="s">
-        <v>383</v>
+        <v>875</v>
       </c>
       <c r="D83" t="s">
-        <v>1342</v>
+        <v>172</v>
       </c>
       <c r="E83" t="s">
         <v>1462</v>
@@ -7945,24 +7954,130 @@
         <v>1462</v>
       </c>
       <c r="I83" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="J83" t="s">
         <v>1462</v>
       </c>
       <c r="P83" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="1047927" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D1047927" s="7"/>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>1076</v>
+      </c>
+      <c r="B84" t="s">
+        <v>174</v>
+      </c>
+      <c r="C84" t="s">
+        <v>340</v>
+      </c>
+      <c r="D84" t="s">
+        <v>173</v>
+      </c>
+      <c r="E84" t="s">
+        <v>1461</v>
+      </c>
+      <c r="F84" t="s">
+        <v>1462</v>
+      </c>
+      <c r="G84" t="s">
+        <v>1461</v>
+      </c>
+      <c r="H84" t="s">
+        <v>1461</v>
+      </c>
+      <c r="I84" t="s">
+        <v>1461</v>
+      </c>
+      <c r="J84" t="s">
+        <v>1461</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>1130</v>
+      </c>
+      <c r="B85" t="s">
+        <v>176</v>
+      </c>
+      <c r="C85" t="s">
+        <v>524</v>
+      </c>
+      <c r="D85" t="s">
+        <v>175</v>
+      </c>
+      <c r="E85" t="s">
+        <v>1461</v>
+      </c>
+      <c r="F85" t="s">
+        <v>1462</v>
+      </c>
+      <c r="G85" t="s">
+        <v>1461</v>
+      </c>
+      <c r="H85" t="s">
+        <v>1461</v>
+      </c>
+      <c r="I85" t="s">
+        <v>1461</v>
+      </c>
+      <c r="J85" t="s">
+        <v>1461</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>1077</v>
+      </c>
+      <c r="B86" t="s">
+        <v>178</v>
+      </c>
+      <c r="C86" t="s">
+        <v>340</v>
+      </c>
+      <c r="D86" t="s">
+        <v>177</v>
+      </c>
+      <c r="E86" t="s">
+        <v>1461</v>
+      </c>
+      <c r="F86" t="s">
+        <v>1462</v>
+      </c>
+      <c r="G86" t="s">
+        <v>1461</v>
+      </c>
+      <c r="H86" t="s">
+        <v>1461</v>
+      </c>
+      <c r="I86" t="s">
+        <v>1461</v>
+      </c>
+      <c r="J86" t="s">
+        <v>1461</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1047930" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D1047930" s="7"/>
     </row>
   </sheetData>
-  <sortState ref="A2:J83">
-    <sortCondition ref="F2:F83"/>
-    <sortCondition ref="G2:G83"/>
-    <sortCondition ref="H2:H83"/>
+  <sortState ref="A2:J86">
+    <sortCondition ref="B2:B86"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
